--- a/database/UserDatabase.xlsx
+++ b/database/UserDatabase.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -66,13 +66,13 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="2">
@@ -80,13 +80,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>2.0</v>
-      </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -94,13 +94,27 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>-4.0</v>
+      <c r="B4" t="n" s="0">
+        <v>2.0</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>1.0</v>
+      <c r="C4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/database/UserDatabase.xlsx
+++ b/database/UserDatabase.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -66,55 +66,13 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>3.0</v>
+        <v>23.213</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>5.0</v>
+        <v>231.321</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>5.0</v>
+        <v>32.123</v>
       </c>
     </row>
   </sheetData>

--- a/database/UserDatabase.xlsx
+++ b/database/UserDatabase.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -63,44 +63,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>123.23</v>
+        <v>54.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>23.32</v>
+        <v>86.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>654.4</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>3.23</v>
+        <v>345.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>2.1</v>
+        <v>34.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
         <v>2.0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>3.23324</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>2.143</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>4.4234</v>
       </c>
     </row>
   </sheetData>
